--- a/dst/dstFile_WWS.xlsx
+++ b/dst/dstFile_WWS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A$1:$H$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A$1:$E$32</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,35 +453,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Lfd. Nr</t>
+          <t>Erstelldatum</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Erstelldatum</t>
+          <t>SAP</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>Bestellnummer</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Erwartetes Ergebnis</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Bestellnummer</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Info</t>
         </is>
@@ -490,816 +475,718 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M666-666666</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44566</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>M214</t>
-        </is>
+          <t>M159-21501</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>M159</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>190493274</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gutfall Media PP</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>190284041</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>IR aus Belastung M666-666666 UPS 1Z5W63W66843834750 13.03.2020</t>
+          <t>MEHRFACHDEFEKT. Zurück Aus M159-21501-R-C sowie SAMSUNG RMA 2164427 sowie S5 Ticket 11938604. Es erfolgt eine Belastung an den Hersteller</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S666-666666</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>44567</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>M215</t>
-        </is>
+          <t>S070-20317</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>S070</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>190294210</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gutfall Saturn PP</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>190284042</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>IR aus Belastung S666-666666 UPS 1Z5W63W66843834750 13.03.2021</t>
+          <t>S070-20317-R-C   GS- 7182557  02.09.2022   1Z5W7A356826760786</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M555-55555</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>44566</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>M214</t>
-        </is>
+          <t>M233-185077</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>M233</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>190381895</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Gutfall Media ZIR</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>190284041</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>IR aus Belastung M555-55555 UPS 1Z5W63W66843834750 13.03.2020</t>
+          <t>m233-185077</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S555-55555</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44567</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>M215</t>
-        </is>
+          <t>M233-185259</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>M233</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>190381897</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gutfall Saturn ZIR</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>190284042</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>IR aus Belastung S555-55555 UPS 1Z5W63W66843834750 13.03.2021</t>
+          <t>m233-185259</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M666-666666</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>44566</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>M214</t>
-        </is>
+          <t>M233-185340</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>M233</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>190381900</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Media PP klein</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>190284041</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>IR aus Belastung m666-666666 UPS 1Z5W63W66843834750 13.03.2020</t>
+          <t>m233-185340</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S666-666666</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>44567</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>M215</t>
-        </is>
+          <t>M233-158496</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>M233</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>190381902</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Saturn PP klein</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>190284042</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>IR aus Belastung s666-666666 UPS 1Z5W63W66843834750 13.03.2021</t>
+          <t>m233-158496</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M555-55555</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>44566</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>M214</t>
-        </is>
+          <t>S033-24235</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>S033</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>190350403</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Media ZIR klein</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>190284041</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>IR aus Belastung m555-55555 UPS 1Z5W63W66843834750 13.03.2020</t>
+          <t>ZU s033-24235</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S555-55555</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>44567</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>M215</t>
-        </is>
+          <t>S358-15859</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>S358</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>190067261</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Saturn ZIR klein</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>190284042</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>IR aus Belastung s555-55555 UPS 1Z5W63W66843834750 13.03.2021</t>
+          <t>R002338127   S358-15859-R-S   SN.: OHPW3HKR800028Y Rieck Herr X.Sadüja B-ALL 657</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S555-55555</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>44568</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>M216</t>
-        </is>
+          <t>M016-22259</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44841</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>190425996</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Saturn ZIR klein ohne Bindestrich</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>190284043</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>IR aus Belastung s55555555 UPS 1Z5W63W66843834750 13.03.2022</t>
+          <t>Seriennummer: 0JF93HAT300732H  Ihre Referenz:M016-22259  RMA Nummer: 1829543  GS. 5004215089</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M555-55555</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44569</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>M217</t>
-        </is>
+          <t>S204-32947</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>44841</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>S204</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>190338471</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Media ZIR klein ohne Bindestrich</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>190284044</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>IR aus Belastung m55555555 UPS 1Z5W63W66843834750 13.03.2023</t>
+          <t>S204-32947--KN----H318775/2376742</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>M199-12345</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>44571</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>S317</t>
-        </is>
+          <t>M023-29850</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44844</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>190540501</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Freizeichen hinter Bindestrich</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>190307314</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Test M199- 12345  Freizeichen hinter Bindestrich</t>
+          <t>Wir belasten M023-29850-R-C / Samsung 2383463 / KN Vorgangsnummer: H318843</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>M199-12345</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>44572</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>M208</t>
-        </is>
+          <t>M011-24641</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1588882</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Freizeichen vor Bindestrich</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>190376189</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Test M199 -12345 Freizeichen vor Bindestrich</t>
+          <t>zu ZIR M011-24641-R-SD/2419756</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S555-55555</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>44567</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>M215</t>
-        </is>
+          <t>M180-24336</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44846</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>M180</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>190429285</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Freizeichen statt Bindestrich</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>190284042</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>IR aus Belastung S555 55555 UPS 1Z5W63W66843834750 13.03.2021</t>
+          <t>ZIR Auftrag M180-24336; Defekt mit Technikerbericht</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>M100-15324</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>44568</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>M216</t>
-        </is>
+          <t>S031-50697</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44846</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>S031</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>190638937</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Vor und hinter Bindestrich Freizeichen</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4711</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>M100 - 15324 / GS-Nr.: 5032992317 v. 27.09.19</t>
+          <t>S031-50697  Case 11867757</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1_keine repnr. gefunden</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>44572</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>S044</t>
-        </is>
+          <t>M166-44081</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44847</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>M166</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>190461053</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nichts gefunden</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>190531079</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>1Z5W7F466843699265 - Keine Servicenummer vorhanden</t>
+          <t>M166-44081-R-C / GS 5005134440</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1_keine repnr. gefunden</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>44573</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>S087</t>
-        </is>
+          <t>M173-28946</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>M173</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>190541687</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>190353841</v>
+          <t>Retoure zu M173-28946. BA da wir noch keine Gutschrift erhalten haben GS-Nr 5005640365</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1_keine repnr. gefunden</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>44574</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>M188</t>
-        </is>
+          <t>M266-19656</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>M266</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>190207225</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Falsche SR Nummer PP</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>190508958</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>X666-666666</t>
+          <t>IR ZU M266-19656 GS Nr. 5005608495</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1_keine repnr. gefunden</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>44574</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>M188</t>
-        </is>
+          <t>M023-29560</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>190541223</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Falsche SR Nummer ZIR</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>190508959</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>X555-55555</t>
+          <t>M023-29560-R-SD - RMA SAM-645430-0 /IT-Samsung10273070</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M199-12345</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>44575</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>M189</t>
-        </is>
+          <t>S031-53184</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>S031</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>190639324</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Freizeichen hinter M oder S</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4711</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>M 199-12345 akljdlakwiouqwoulaksjdkasj</t>
+          <t>S031-53184-R-SD</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>M555-55555</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>44576</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>M190</t>
-        </is>
+          <t>S086-33774</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>S086</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>191097864</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kein Leerzeichen hinter RepNr.</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>4711</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>M555-55555Gutschrift zu irgendwas</t>
+          <t>S086-33774-R-C</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M555-55555</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>44577</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>M191</t>
-        </is>
+          <t>M011-24540</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>44854</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1589570</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kein Leerzeichen vor Rep Nr.</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4711</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Gutschrift zuM555-55555</t>
+          <t>M011-24540 RMA R002397753</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>M555-55555</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>44578</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>M192</t>
-        </is>
+          <t>M197-58318</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>44855</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>M197</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>190544543</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Kein Leerzeichen vor &amp; hinter Rep Nr</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4711</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Gutschrift zuM555-55555wegenIrgendwaskaputt</t>
+          <t>M197-58318 -Retoure zu GS: 5003338432 vom 04.05.2022 - bitte belasten. da Samsung keine GS mehr an die Märkte verschickt. sondern die Verrechnung zentralseitig mit Samsung erfolgt</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>M555-55555</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>44579</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>M193</t>
-        </is>
+          <t>S326-18444</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44855</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>S326</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>190263368</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sonderzeichen vor &amp; hinter Rep.Nr</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>4711</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Gutschrift zu\M555-55555&amp;wegenIrgendwaskaputt</t>
+          <t>1Z5W7F386815904243 Auftrag S326-18444</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>M194-58632</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>44580</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>M194</t>
-        </is>
+          <t>M253-20554</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>44856</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>M253</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>190348948</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Keinen Marktbuchstaben</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>4711</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>194-58632</t>
+          <t>M253-20554  1Z5W65W96818109519 Auftrag 7150258</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>M016-23883</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>190427376</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Seriennummer: R3CRA02DR0P  IMEI: 351981532000508  Ihre Referenz: M016-23883  Samsung Vorgangsnummer: 2383409  KN Vorgangsnummer: H318796</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>S033-24236</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>S033</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>190351868</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>zu S033-24236.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>S802-16478</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>S802</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>207607252</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>FO1033016512 Case 11965968 Auftragsnummer: S802-16478-R-C GS 5006005519</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>M233-185168</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>M233</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>190381896</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>m233-185168</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>M233-185366</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>M233</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>190381901</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>m233-185366</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>S033-24158</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>S033</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>190350404</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>zu S033-24158.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>M057-44777</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>44844</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>190461832</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SN RFAN801JQTP M057-44777-R-C Gutschrift 5004760968</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H25"/>
+  <autoFilter ref="A1:E32"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>